--- a/media/files/2017/04/16/416.xlsx
+++ b/media/files/2017/04/16/416.xlsx
@@ -122,666 +122,666 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>⑥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之弟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>追迹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>福彩双色球</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐至上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3K战队SWAT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁头</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好学习天天向上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐瓜瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 霸天哥、</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南猎鹰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR、领域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>反派</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼命微笑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫步威风</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老玉米</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国大叔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天廷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财猫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩一玩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之亿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雨欲来花满楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>田螺公爵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任天华</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen_Abigail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣*战斗佛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧十一郎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神气的香蕉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗版大熊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风信子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪的汉子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥勒大帝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫珏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳虫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西楚霸王项羽自刎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉风的蟋蟀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李世民大帝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫星</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴尔巴斯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星驻地球观察团</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州牧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王CY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>靖之国</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙、</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡闹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>云淡风倾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniCooPer_S</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>静静的看着你</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡不醒啊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：20分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：10分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12巅峰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16巅峰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：50分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途退过盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13614</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6851</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6435</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5766</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5763</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5716</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5438</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5130</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5109</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4846</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4760</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4618</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4505</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4469</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4218</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3787</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3703</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3448</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3305</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3289</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2812</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2710</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2656</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2616</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2567</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2520</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2414</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2374</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2283</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2275</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2229</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2125</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>495</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>479</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>425</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1910</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1895</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1835</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1799</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1341</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1185</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1061</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>945</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>821</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>645</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1685</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1553</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1404</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1380</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1367</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1366</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1360</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1343</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2084</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙兄是也</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>净坛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途换过号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途退过盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4912</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三璺鱼的鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三璺鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12秘境</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.14领地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16王战</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打旗/建筑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：10分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞人/协防</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巅峰加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分30分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲良</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐斩</t>
+  </si>
+  <si>
+    <t>4593</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4166</t>
+  </si>
+  <si>
+    <t>三枪九洞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7463</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之羽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5312</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3088</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6306</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的容颜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹realman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本周捐献荣誉值        </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四哥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤</t>
+  </si>
+  <si>
+    <t>⑦</t>
+  </si>
+  <si>
+    <t>⑧</t>
+  </si>
+  <si>
+    <t>⑨</t>
+  </si>
+  <si>
+    <t>⑩</t>
+  </si>
+  <si>
+    <t>⑫</t>
+  </si>
+  <si>
+    <t>⑪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">热烈欢迎新成员加入CHA！                                                                                                                       Welcom to CHA!                                      </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分暂行规定方法：                                                                                                                                                                                                                                                                                            巅峰总分：100分（当周两次，每次各50分）巅峰额外奖惩：加速5次50%以上加30分、不听指挥每次扣5分                                                                                                                                           捐献总分：20分 （2000以下0分，2000-3000:10分，3000-4000:15分，4000-6000:20分，6000-10000:25分，10000以上：50分                                                                                                                        王战总分：10分（飞城：10分，协防：5分）领地总分：10分 秘境总分：10分（语音：10分，参与：5分，未参与：0分）打旗/建筑总分：10分（组织打旗额外5分）                      撞人一次：30分（必须2人以上组织连撞并且截图发游戏群消息有效）协防一次：30分（凌晨0点-早上9点有效协防并截图：30分，其他时间有效协防并截图：15分）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>③</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>⑥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之弟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>追迹</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>福彩双色球</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐至上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>一路闪电砍死你</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3K战队SWAT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁头</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>好好学习天天向上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐瓜瓜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 霸天哥、</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>西南猎鹰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR、领域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛座</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>反派</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼命微笑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>狂人正道</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>漫步威风</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老玉米</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国大叔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天廷</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财猫</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩一玩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之亿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>风雨欲来花满楼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>田螺公爵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>任天华</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen_Abigail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣*战斗佛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>萧十一郎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神气的香蕉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗版大熊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>风信子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>流浪的汉子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥勒大帝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赫珏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲壳虫</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>西楚霸王项羽自刎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉风的蟋蟀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李世民大帝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>低调</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫星</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴尔巴斯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>火星驻地球观察团</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州牧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>王CY</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>靖之国</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青龙、</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡闹</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>云淡风倾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniCooPer_S</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>静静的看着你</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡不醒啊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelloC</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：20分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：10分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.12巅峰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.16巅峰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：50分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中途退过盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>13614</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6851</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6435</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5766</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5763</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5716</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5438</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5130</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5109</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4846</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4760</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4618</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4601</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4505</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4469</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4218</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3787</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3703</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3448</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3305</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3289</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2812</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2710</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2656</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2616</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2567</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2520</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2414</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2374</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2283</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2275</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2229</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2125</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2123</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>495</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>479</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>425</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1910</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1895</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1835</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1799</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1341</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1185</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1061</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>945</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>821</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>645</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1685</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1553</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1404</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1380</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1367</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1366</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1360</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1343</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2084</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>云龙兄是也</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>净坛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中途换过号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中途退过盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4912</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三璺鱼的鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三璺鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.12秘境</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.14领地</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.16王战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打旗/建筑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：10分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞人/协防</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>巅峰加速</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分30分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲良</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐斩</t>
-  </si>
-  <si>
-    <t>4593</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4166</t>
-  </si>
-  <si>
-    <t>三枪九洞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7463</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之羽</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5312</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3088</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6306</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的容颜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯粹realman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本周捐献荣誉值        </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>四哥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑤</t>
-  </si>
-  <si>
-    <t>⑦</t>
-  </si>
-  <si>
-    <t>⑧</t>
-  </si>
-  <si>
-    <t>⑨</t>
-  </si>
-  <si>
-    <t>⑩</t>
-  </si>
-  <si>
-    <t>⑫</t>
-  </si>
-  <si>
-    <t>⑪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>退盟牺牲小我，成就联盟大我。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">热烈欢迎新成员加入CHA！                                                                                                                       Welcom to CHA!                                      </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分暂行规定方法：                                                                                                                                                                                                                                                                                            巅峰总分：100分（当周两次，每次各50分）巅峰额外奖惩：加速5次50%以上加30分、不听指挥每次扣5分                                                                                                                                           捐献总分：20分 （2000以下0分，2000-3000:10分，3000-4000:15分，4000-6000:20分，6000-10000:25分，10000以上：50分                                                                                                                        王战总分：10分（飞城：10分，协防：5分）领地总分：10分 秘境总分：10分（语音：10分，参与：5分，未参与：0分）打旗/建筑总分：10分（组织打旗额外5分）                      撞人一次：30分（必须2人以上组织连撞并且截图发游戏群消息有效）协防一次：30分（凌晨0点-早上9点有效协防并截图：30分，其他时间有效协防并截图：15分）</t>
+    <t>退盟寻找幸福！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1222,6 +1222,33 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1258,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,52 +1285,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,10 +1613,10 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I66" sqref="I66"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1634,20 +1634,20 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21"/>
@@ -1655,34 +1655,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="L2" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>1</v>
@@ -1694,34 +1694,34 @@
         <v>4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>174</v>
+        <v>79</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>2</v>
@@ -1730,247 +1730,247 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
+        <v>172</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
-        <v>176</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
-        <v>20</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>177</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42" t="s">
-        <v>21</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+        <v>183</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
+        <v>186</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
+        <v>149</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="43" t="s">
-        <v>184</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
+        <v>143</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43" t="s">
-        <v>183</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
@@ -1986,41 +1986,41 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
       <c r="B16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46"/>
+      <c r="C16" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="41"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="32"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
     </row>
@@ -2029,37 +2029,39 @@
         <v>1</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C18" s="10">
+        <v>50</v>
+      </c>
+      <c r="D18" s="10">
+        <v>50</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="9">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10</v>
+      </c>
+      <c r="I18" s="23">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
         <v>30</v>
       </c>
-      <c r="D18" s="10">
-        <v>50</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="9">
-        <v>50</v>
-      </c>
-      <c r="G18" s="9">
-        <v>10</v>
-      </c>
-      <c r="H18" s="9">
-        <v>10</v>
-      </c>
-      <c r="I18" s="23">
-        <v>10</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
       <c r="L18" s="9">
         <v>30</v>
       </c>
       <c r="M18" s="4">
         <f>SUM(C18:L18)</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
@@ -2069,22 +2071,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C19" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10">
         <v>50</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F19" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G19" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" s="9">
         <v>10</v>
@@ -2093,13 +2095,13 @@
         <v>10</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
         <v>30</v>
       </c>
-      <c r="L19" s="9"/>
       <c r="M19" s="4">
-        <f>SUM(C19:K19)</f>
-        <v>170</v>
+        <f>SUM(C19:L19)</f>
+        <v>190</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
@@ -2109,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="C20" s="10">
         <v>50</v>
@@ -2118,13 +2120,13 @@
         <v>50</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="F20" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="9">
         <v>10</v>
@@ -2132,14 +2134,16 @@
       <c r="I20" s="23">
         <v>10</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9">
+        <v>10</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9">
         <v>30</v>
       </c>
       <c r="M20" s="4">
         <f>SUM(C20:L20)</f>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
@@ -2149,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
@@ -2158,13 +2162,13 @@
         <v>50</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F21" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G21" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="9">
         <v>10</v>
@@ -2179,7 +2183,7 @@
       </c>
       <c r="M21" s="4">
         <f>SUM(C21:L21)</f>
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
@@ -2189,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C22" s="10">
         <v>50</v>
@@ -2198,10 +2202,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F22" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G22" s="9">
         <v>5</v>
@@ -2212,14 +2216,14 @@
       <c r="I22" s="23">
         <v>10</v>
       </c>
-      <c r="J22" s="9">
-        <v>15</v>
-      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9">
+        <v>30</v>
+      </c>
       <c r="M22" s="4">
-        <f>SUM(C22:K22)</f>
-        <v>155</v>
+        <f>SUM(C22:L22)</f>
+        <v>175</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
@@ -2229,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C23" s="10">
         <v>50</v>
@@ -2238,13 +2242,13 @@
         <v>50</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F23" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G23" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H23" s="9">
         <v>10</v>
@@ -2254,10 +2258,12 @@
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9">
+        <v>30</v>
+      </c>
       <c r="M23" s="4">
-        <f>SUM(C23:K23)</f>
-        <v>155</v>
+        <f>SUM(C23:L23)</f>
+        <v>170</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
@@ -2267,7 +2273,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10">
         <v>50</v>
@@ -2276,10 +2282,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="F24" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G24" s="9">
         <v>5</v>
@@ -2290,14 +2296,14 @@
       <c r="I24" s="23">
         <v>10</v>
       </c>
-      <c r="J24" s="9">
-        <v>10</v>
-      </c>
+      <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="9">
+        <v>30</v>
+      </c>
       <c r="M24" s="4">
-        <f>SUM(C24:K24)</f>
-        <v>155</v>
+        <f>SUM(C24:L24)</f>
+        <v>170</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
@@ -2307,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="C25" s="10">
         <v>50</v>
@@ -2316,28 +2322,28 @@
         <v>50</v>
       </c>
       <c r="E25" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="9">
+        <v>15</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>10</v>
+      </c>
+      <c r="I25" s="23">
+        <v>10</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9">
+        <v>30</v>
+      </c>
+      <c r="M25" s="4">
+        <f>SUM(C25:L25)</f>
         <v>165</v>
-      </c>
-      <c r="F25" s="9">
-        <v>20</v>
-      </c>
-      <c r="G25" s="9">
-        <v>5</v>
-      </c>
-      <c r="H25" s="9">
-        <v>10</v>
-      </c>
-      <c r="I25" s="23">
-        <v>10</v>
-      </c>
-      <c r="J25" s="9">
-        <v>10</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="4">
-        <f>SUM(C25:K25)</f>
-        <v>155</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
@@ -2347,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C26" s="10">
         <v>50</v>
@@ -2356,7 +2362,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F26" s="9">
         <v>25</v>
@@ -2370,12 +2376,14 @@
       <c r="I26" s="23">
         <v>10</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9">
+        <v>10</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="4">
         <f>SUM(C26:K26)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
@@ -2385,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C27" s="10">
         <v>50</v>
@@ -2394,13 +2402,13 @@
         <v>50</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F27" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="9">
         <v>10</v>
@@ -2415,7 +2423,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="4">
         <f>SUM(C27:K27)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
@@ -2425,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="C28" s="10">
         <v>50</v>
@@ -2434,7 +2442,7 @@
         <v>50</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="F28" s="9">
         <v>15</v>
@@ -2449,13 +2457,13 @@
         <v>10</v>
       </c>
       <c r="J28" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
         <f>SUM(C28:K28)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2463,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="C29" s="10">
         <v>50</v>
@@ -2472,13 +2480,13 @@
         <v>50</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="F29" s="9">
         <v>25</v>
       </c>
       <c r="G29" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H29" s="9">
         <v>10</v>
@@ -2491,7 +2499,7 @@
       <c r="L29" s="9"/>
       <c r="M29" s="4">
         <f>SUM(C29:K29)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
@@ -2501,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="C30" s="10">
         <v>50</v>
@@ -2510,13 +2518,13 @@
         <v>50</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F30" s="9">
         <v>20</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="9">
         <v>10</v>
@@ -2531,7 +2539,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="4">
         <f>SUM(C30:K30)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2539,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="C31" s="10">
         <v>50</v>
@@ -2548,13 +2556,13 @@
         <v>50</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="F31" s="9">
         <v>20</v>
       </c>
       <c r="G31" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="9">
         <v>10</v>
@@ -2569,7 +2577,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="4">
         <f>SUM(C31:K31)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2577,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C32" s="10">
         <v>50</v>
@@ -2586,7 +2594,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F32" s="9">
         <v>20</v>
@@ -2600,12 +2608,14 @@
       <c r="I32" s="23">
         <v>10</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="9">
+        <v>10</v>
+      </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
         <f>SUM(C32:K32)</f>
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2613,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C33" s="10">
         <v>50</v>
@@ -2622,7 +2632,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F33" s="9">
         <v>20</v>
@@ -2636,12 +2646,14 @@
       <c r="I33" s="23">
         <v>10</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="9">
+        <v>10</v>
+      </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="4">
         <f>SUM(C33:K33)</f>
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2649,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C34" s="10">
         <v>50</v>
@@ -2658,7 +2670,7 @@
         <v>50</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F34" s="9">
         <v>20</v>
@@ -2672,12 +2684,14 @@
       <c r="I34" s="23">
         <v>10</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="9">
+        <v>10</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
         <f>SUM(C34:K34)</f>
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2685,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="10">
         <v>50</v>
@@ -2694,26 +2708,28 @@
         <v>50</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F35" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>10</v>
+      </c>
+      <c r="I35" s="23">
         <v>5</v>
-      </c>
-      <c r="H35" s="9">
-        <v>10</v>
-      </c>
-      <c r="I35" s="23">
-        <v>10</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="L35" s="9">
+        <v>30</v>
+      </c>
       <c r="M35" s="4">
-        <f>SUM(C35:K35)</f>
-        <v>145</v>
+        <f>SUM(C35:L35)</f>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2721,7 +2737,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="C36" s="10">
         <v>50</v>
@@ -2730,10 +2746,10 @@
         <v>50</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F36" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="9">
         <v>5</v>
@@ -2751,7 +2767,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="4">
         <f>SUM(C36:K36)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2759,7 +2775,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="10">
         <v>50</v>
@@ -2768,13 +2784,13 @@
         <v>50</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F37" s="9">
         <v>20</v>
       </c>
       <c r="G37" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37" s="9">
         <v>10</v>
@@ -2782,12 +2798,14 @@
       <c r="I37" s="23">
         <v>10</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="9">
+        <v>10</v>
+      </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="4">
         <f>SUM(C37:K37)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2795,7 +2813,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C38" s="10">
         <v>50</v>
@@ -2804,13 +2822,13 @@
         <v>50</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" s="9">
         <v>20</v>
       </c>
       <c r="G38" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="9">
         <v>10</v>
@@ -2818,12 +2836,14 @@
       <c r="I38" s="23">
         <v>10</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="9">
+        <v>10</v>
+      </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
         <f>SUM(C38:K38)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
@@ -2833,7 +2853,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10">
         <v>50</v>
@@ -2842,7 +2862,7 @@
         <v>50</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F39" s="9">
         <v>20</v>
@@ -2869,7 +2889,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C40" s="10">
         <v>50</v>
@@ -2878,7 +2898,7 @@
         <v>50</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F40" s="9">
         <v>20</v>
@@ -2907,7 +2927,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C41" s="10">
         <v>50</v>
@@ -2916,10 +2936,10 @@
         <v>50</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F41" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G41" s="9">
         <v>5</v>
@@ -2930,7 +2950,9 @@
       <c r="I41" s="23">
         <v>10</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="9">
+        <v>10</v>
+      </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
@@ -2945,7 +2967,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C42" s="10">
         <v>50</v>
@@ -2983,7 +3005,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C43" s="10">
         <v>50</v>
@@ -2992,10 +3014,10 @@
         <v>50</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F43" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G43" s="9">
         <v>5</v>
@@ -3011,7 +3033,7 @@
       <c r="L43" s="9"/>
       <c r="M43" s="4">
         <f>SUM(C43:K43)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="8"/>
@@ -3021,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C44" s="10">
         <v>50</v>
@@ -3030,10 +3052,10 @@
         <v>50</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F44" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G44" s="9">
         <v>5</v>
@@ -3049,7 +3071,7 @@
       <c r="L44" s="9"/>
       <c r="M44" s="4">
         <f>SUM(C44:K44)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="8"/>
@@ -3059,7 +3081,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C45" s="10">
         <v>50</v>
@@ -3068,10 +3090,10 @@
         <v>50</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F45" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="9">
         <v>5</v>
@@ -3082,12 +3104,16 @@
       <c r="I45" s="23">
         <v>10</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="9">
+        <v>10</v>
+      </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="L45" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="M45" s="4">
         <f>SUM(C45:K45)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="8"/>
@@ -3097,7 +3123,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C46" s="10">
         <v>50</v>
@@ -3106,13 +3132,13 @@
         <v>50</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F46" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="9">
         <v>10</v>
@@ -3120,13 +3146,11 @@
       <c r="I46" s="23">
         <v>10</v>
       </c>
-      <c r="J46" s="9">
-        <v>10</v>
-      </c>
+      <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
-        <f>SUM(C46:J46)</f>
+        <f>SUM(C46:K46)</f>
         <v>140</v>
       </c>
       <c r="P46" s="7"/>
@@ -3137,7 +3161,7 @@
         <v>30</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C47" s="10">
         <v>50</v>
@@ -3146,10 +3170,10 @@
         <v>50</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F47" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="9">
         <v>5</v>
@@ -3162,12 +3186,10 @@
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="9" t="s">
-        <v>148</v>
-      </c>
+      <c r="L47" s="9"/>
       <c r="M47" s="4">
         <f>SUM(C47:K47)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="8"/>
@@ -3177,7 +3199,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C48" s="10">
         <v>50</v>
@@ -3186,7 +3208,7 @@
         <v>50</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F48" s="9">
         <v>10</v>
@@ -3200,12 +3222,14 @@
       <c r="I48" s="23">
         <v>10</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="9">
+        <v>10</v>
+      </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
-        <f>SUM(C48:K48)</f>
-        <v>130</v>
+        <f>SUM(C48:J48)</f>
+        <v>140</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="8"/>
@@ -3215,7 +3239,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C49" s="10">
         <v>50</v>
@@ -3224,7 +3248,7 @@
         <v>50</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -3238,12 +3262,14 @@
       <c r="I49" s="23">
         <v>10</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="9">
+        <v>10</v>
+      </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
         <f>SUM(C49:K49)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="8"/>
@@ -3253,7 +3279,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C50" s="10">
         <v>50</v>
@@ -3262,7 +3288,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F50" s="9">
         <v>10</v>
@@ -3291,7 +3317,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
@@ -3300,13 +3326,13 @@
         <v>50</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="F51" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51" s="9">
         <v>10</v>
@@ -3319,7 +3345,7 @@
       <c r="L51" s="9"/>
       <c r="M51" s="4">
         <f>SUM(C51:K51)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="8"/>
@@ -3329,7 +3355,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52" s="10">
         <v>50</v>
@@ -3338,7 +3364,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -3367,7 +3393,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C53" s="10">
         <v>50</v>
@@ -3376,19 +3402,19 @@
         <v>50</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F53" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G53" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H53" s="9">
         <v>10</v>
       </c>
       <c r="I53" s="23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3403,7 +3429,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C54" s="10">
         <v>50</v>
@@ -3412,7 +3438,7 @@
         <v>50</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F54" s="9">
         <v>0</v>
@@ -3441,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C55" s="10">
         <v>50</v>
@@ -3450,7 +3476,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F55" s="9">
         <v>0</v>
@@ -3479,7 +3505,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C56" s="10">
         <v>50</v>
@@ -3488,26 +3514,28 @@
         <v>50</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F56" s="9">
         <v>0</v>
       </c>
       <c r="G56" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H56" s="9">
         <v>10</v>
       </c>
       <c r="I56" s="23">
-        <v>10</v>
-      </c>
-      <c r="J56" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
+        <v>10</v>
+      </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
         <f>SUM(C56:K56)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="8"/>
@@ -3517,22 +3545,22 @@
         <v>40</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C57" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D57" s="10">
         <v>50</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F57" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="9">
         <v>10</v>
@@ -3541,11 +3569,13 @@
         <v>10</v>
       </c>
       <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="9">
+        <v>30</v>
+      </c>
       <c r="L57" s="9"/>
       <c r="M57" s="4">
         <f>SUM(C57:K57)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="8"/>
@@ -3555,22 +3585,22 @@
         <v>41</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C58" s="10">
         <v>50</v>
       </c>
       <c r="D58" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F58" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H58" s="9">
         <v>10</v>
@@ -3583,7 +3613,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="4">
         <f>SUM(C58:K58)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="8"/>
@@ -3593,22 +3623,22 @@
         <v>42</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C59" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D59" s="10">
         <v>50</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F59" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G59" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59" s="9">
         <v>10</v>
@@ -3621,7 +3651,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="4">
         <f>SUM(C59:K59)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="8"/>
@@ -3631,19 +3661,19 @@
         <v>43</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C60" s="10">
         <v>50</v>
       </c>
       <c r="D60" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F60" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G60" s="9">
         <v>5</v>
@@ -3652,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -3669,22 +3699,22 @@
         <v>44</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C61" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D61" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F61" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G61" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H61" s="9">
         <v>10</v>
@@ -3697,7 +3727,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="4">
         <f>SUM(C61:K61)</f>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="8"/>
@@ -3707,16 +3737,16 @@
         <v>45</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C62" s="10">
+        <v>50</v>
+      </c>
+      <c r="D62" s="10">
         <v>30</v>
       </c>
-      <c r="D62" s="10">
-        <v>50</v>
-      </c>
       <c r="E62" s="25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -3745,22 +3775,22 @@
         <v>46</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C63" s="10">
         <v>30</v>
       </c>
       <c r="D63" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F63" s="9">
         <v>0</v>
       </c>
       <c r="G63" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H63" s="9">
         <v>10</v>
@@ -3768,14 +3798,12 @@
       <c r="I63" s="23">
         <v>10</v>
       </c>
-      <c r="J63" s="9">
-        <v>10</v>
-      </c>
+      <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
         <f>SUM(C63:K63)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="8"/>
@@ -3785,19 +3813,19 @@
         <v>47</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C64" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D64" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F64" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G64" s="9">
         <v>5</v>
@@ -3808,11 +3836,11 @@
       <c r="I64" s="23">
         <v>10</v>
       </c>
-      <c r="J64" s="9"/>
+      <c r="J64" s="9">
+        <v>10</v>
+      </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="L64" s="9"/>
       <c r="M64" s="4">
         <f>SUM(C64:K64)</f>
         <v>95</v>
@@ -3825,19 +3853,19 @@
         <v>48</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C65" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D65" s="10">
         <v>50</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F65" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="9">
         <v>5</v>
@@ -3850,7 +3878,9 @@
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
+      <c r="L65" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="M65" s="4">
         <f>SUM(C65:K65)</f>
         <v>95</v>
@@ -3863,7 +3893,7 @@
         <v>49</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C66" s="10">
         <v>10</v>
@@ -3872,7 +3902,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F66" s="9">
         <v>25</v>
@@ -3901,7 +3931,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C67" s="10">
         <v>30</v>
@@ -3910,7 +3940,7 @@
         <v>30</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -3937,22 +3967,22 @@
         <v>51</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C68" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D68" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F68" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G68" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H68" s="9">
         <v>10</v>
@@ -3960,12 +3990,14 @@
       <c r="I68" s="23">
         <v>10</v>
       </c>
-      <c r="J68" s="9"/>
+      <c r="J68" s="9">
+        <v>10</v>
+      </c>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
-        <f>SUM(C68:K68)</f>
-        <v>80</v>
+        <f>SUM(C68:J68)</f>
+        <v>85</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="8"/>
@@ -3975,25 +4007,25 @@
         <v>52</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C69" s="10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D69" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F69" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G69" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H69" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I69" s="23">
         <v>10</v>
@@ -4013,25 +4045,25 @@
         <v>53</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C70" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D70" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F70" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G70" s="9">
         <v>0</v>
       </c>
       <c r="H70" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I70" s="23">
         <v>10</v>
@@ -4051,16 +4083,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C71" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D71" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -4072,14 +4104,14 @@
         <v>10</v>
       </c>
       <c r="I71" s="23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
         <f>SUM(C71:K71)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="8"/>
@@ -4089,34 +4121,34 @@
         <v>55</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C72" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D72" s="10">
         <v>30</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F72" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
+        <v>10</v>
+      </c>
+      <c r="I72" s="23">
         <v>5</v>
-      </c>
-      <c r="H72" s="9">
-        <v>10</v>
-      </c>
-      <c r="I72" s="23">
-        <v>10</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
-        <f>SUM(C72:J72)</f>
+        <f>SUM(C72:K72)</f>
         <v>75</v>
       </c>
       <c r="P72" s="7"/>
@@ -4136,7 +4168,7 @@
         <v>30</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F73" s="9">
         <v>10</v>
@@ -4165,7 +4197,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C74" s="10">
         <v>10</v>
@@ -4174,7 +4206,7 @@
         <v>30</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -4191,7 +4223,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="35">
+      <c r="M74" s="26">
         <f>SUM(C74:K74)</f>
         <v>60</v>
       </c>
@@ -4201,7 +4233,7 @@
         <v>58</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
@@ -4210,7 +4242,7 @@
         <v>50</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -4227,9 +4259,9 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M75" s="35">
+        <v>146</v>
+      </c>
+      <c r="M75" s="26">
         <f>SUM(C75:J75)</f>
         <v>60</v>
       </c>
@@ -4241,7 +4273,7 @@
         <v>59</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
@@ -4250,7 +4282,7 @@
         <v>30</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -4269,7 +4301,7 @@
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M76" s="4">
         <f>SUM(C76:K76)</f>
@@ -4283,7 +4315,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
@@ -4292,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F77" s="9">
         <v>20</v>
@@ -4321,7 +4353,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
@@ -4330,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F78" s="9">
         <v>10</v>
@@ -4347,7 +4379,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M78" s="4">
         <f>SUM(C78:K78)</f>
@@ -4359,7 +4391,7 @@
         <v>62</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
@@ -4368,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F79" s="9">
         <v>0</v>
@@ -4395,7 +4427,7 @@
         <v>63</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
@@ -4404,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -4431,7 +4463,7 @@
         <v>64</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
@@ -4440,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -4467,7 +4499,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C82" s="10">
         <v>0</v>
@@ -4476,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -4503,7 +4535,7 @@
         <v>66</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C83" s="10">
         <v>0</v>
@@ -4512,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -4539,7 +4571,7 @@
         <v>67</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C84" s="10">
         <v>0</v>
@@ -4548,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F84" s="9">
         <v>0</v>
@@ -4575,7 +4607,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
@@ -4584,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F85" s="9">
         <v>0</v>
@@ -4608,7 +4640,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:M85">
-    <sortCondition descending="1" ref="M18"/>
+    <sortCondition descending="1" ref="M85"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="4">

--- a/media/files/2017/04/16/416.xlsx
+++ b/media/files/2017/04/16/416.xlsx
@@ -82,706 +82,728 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>暴力点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁裆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年4月10日-4月16日周末积分统计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之弟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>追迹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>福彩双色球</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐至上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁头</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好学习天天向上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐瓜瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 霸天哥、</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南猎鹰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR、领域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>反派</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼命微笑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫步威风</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老玉米</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国大叔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天廷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财猫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩一玩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之亿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雨欲来花满楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>田螺公爵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任天华</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen_Abigail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣*战斗佛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧十一郎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神气的香蕉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗版大熊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风信子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪的汉子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥勒大帝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫珏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳虫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西楚霸王项羽自刎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉风的蟋蟀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李世民大帝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫星</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴尔巴斯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星驻地球观察团</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州牧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王CY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>靖之国</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙、</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡闹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>云淡风倾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniCooPer_S</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>静静的看着你</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡不醒啊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：20分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：10分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12巅峰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16巅峰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：50分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途退过盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13614</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6851</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6435</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5766</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5763</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5716</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5438</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5130</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5109</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4846</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4760</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4618</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4505</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4469</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4218</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3787</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3703</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3448</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3305</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3289</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2812</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2710</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2656</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2616</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2567</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2520</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2414</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2374</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2283</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2275</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2229</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2125</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>495</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>479</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>425</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1910</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1895</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1835</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1799</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1341</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1185</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1061</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>945</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>821</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>645</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1685</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1553</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1404</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1380</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1367</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1366</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1360</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1343</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2084</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>净坛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途换过号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途退过盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4912</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三璺鱼的鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12秘境</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.14领地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16王战</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打旗/建筑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：10分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞人/协防</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巅峰加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分30分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲良</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐斩</t>
+  </si>
+  <si>
+    <t>4593</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4166</t>
+  </si>
+  <si>
+    <t>三枪九洞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7463</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之羽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5312</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3088</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6306</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的容颜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹realman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本周捐献荣誉值        </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤</t>
+  </si>
+  <si>
+    <t>⑦</t>
+  </si>
+  <si>
+    <t>⑧</t>
+  </si>
+  <si>
+    <t>⑨</t>
+  </si>
+  <si>
+    <t>⑩</t>
+  </si>
+  <si>
+    <t>⑫</t>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>退盟寻找幸福！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四哥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">热烈欢迎新成员加入CHA！                                                                                                                       Welcom to CHA!                                      </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任我行.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代代</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>代代的菜刀</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>暴力点</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁裆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年4月10日-4月16日周末积分统计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>任我行.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代代</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>卖菜刀</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>⑥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>回不到从前了</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>一路闪电砍死你</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3K战队SWAT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂人正道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三璺鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙兄是也</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>代代的唯依</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之弟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>追迹</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>福彩双色球</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐至上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3K战队SWAT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁头</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>好好学习天天向上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐瓜瓜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 霸天哥、</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>西南猎鹰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR、领域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛座</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>反派</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼命微笑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫步威风</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老玉米</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国大叔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天廷</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财猫</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩一玩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之亿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>风雨欲来花满楼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>田螺公爵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>任天华</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen_Abigail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣*战斗佛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>萧十一郎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神气的香蕉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗版大熊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>风信子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>流浪的汉子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥勒大帝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赫珏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲壳虫</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>西楚霸王项羽自刎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉风的蟋蟀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李世民大帝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>低调</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫星</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴尔巴斯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>火星驻地球观察团</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州牧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>王CY</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>靖之国</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青龙、</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡闹</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>云淡风倾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniCooPer_S</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>静静的看着你</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡不醒啊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelloC</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：20分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：10分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.12巅峰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.16巅峰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：50分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中途退过盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>13614</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6851</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6435</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5766</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5763</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5716</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5438</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5130</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5109</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4846</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4760</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4618</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4601</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4505</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4469</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4218</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3787</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3703</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3448</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3305</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3289</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2812</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2710</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2656</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2616</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2567</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2520</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2414</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2374</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2283</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2275</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2229</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2125</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2123</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>495</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>479</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>425</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1910</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1895</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1835</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1799</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1341</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1185</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1061</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>945</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>821</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>645</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1685</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1553</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1404</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1380</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1367</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1366</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1360</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1343</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2084</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>云龙兄是也</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>净坛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中途换过号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中途退过盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4912</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三璺鱼的鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三璺鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.12秘境</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.14领地</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.16王战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打旗/建筑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：10分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞人/协防</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>巅峰加速</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分30分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲良</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐斩</t>
-  </si>
-  <si>
-    <t>4593</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4166</t>
-  </si>
-  <si>
-    <t>三枪九洞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7463</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之羽</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5312</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3088</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6306</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的容颜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯粹realman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本周捐献荣誉值        </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>四哥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑤</t>
-  </si>
-  <si>
-    <t>⑦</t>
-  </si>
-  <si>
-    <t>⑧</t>
-  </si>
-  <si>
-    <t>⑨</t>
-  </si>
-  <si>
-    <t>⑩</t>
-  </si>
-  <si>
-    <t>⑫</t>
-  </si>
-  <si>
-    <t>⑪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">热烈欢迎新成员加入CHA！                                                                                                                       Welcom to CHA!                                      </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分暂行规定方法：                                                                                                                                                                                                                                                                                            巅峰总分：100分（当周两次，每次各50分）巅峰额外奖惩：加速5次50%以上加30分、不听指挥每次扣5分                                                                                                                                           捐献总分：20分 （2000以下0分，2000-3000:10分，3000-4000:15分，4000-6000:20分，6000-10000:25分，10000以上：50分                                                                                                                        王战总分：10分（飞城：10分，协防：5分）领地总分：10分 秘境总分：10分（语音：10分，参与：5分，未参与：0分）打旗/建筑总分：10分（组织打旗额外5分）                      撞人一次：30分（必须2人以上组织连撞并且截图发游戏群消息有效）协防一次：30分（凌晨0点-早上9点有效协防并截图：30分，其他时间有效协防并截图：15分）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一路闪电砍死你</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂人正道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>退盟寻找幸福！</t>
+    <r>
+      <t>积分暂行规定方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（相同积分者以捐献值最高的轮流发放国王礼包）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：                                                                                                                                                                                                                                                                                            巅峰总分：100分（当周两次，每次各50分）巅峰额外奖惩：加速5次50%以上加30分、不听指挥每次扣5分                                                                                                                                           捐献总分：20分 （2000以下0分，2000-3000:10分，3000-4000:15分，4000-6000:20分，6000-10000:25分，10000以上：50分                                                                                                                        王战总分：10分（飞城：10分，协防：5分）领地总分：10分 秘境总分：10分（语音：10分，参与：5分，未参与：0分）打旗/建筑总分：10分（组织打旗额外5分）                      撞人一次：30分（必须2人以上组织连撞并且截图发游戏群消息有效）协防一次：30分（凌晨0点-早上9点有效协防并截图：30分，其他时间有效协防并截图：15分）</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -793,7 +815,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0;_ࣿ"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,6 +940,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1616,7 +1645,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="M85" sqref="A1:M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1635,7 +1664,7 @@
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20"/>
       <c r="B1" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -1655,34 +1684,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>1</v>
@@ -1694,34 +1723,34 @@
         <v>4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>2</v>
@@ -1730,15 +1759,15 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>172</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>182</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
@@ -1753,12 +1782,12 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="45"/>
@@ -1774,12 +1803,12 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="45"/>
@@ -1795,12 +1824,12 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
@@ -1816,12 +1845,12 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
@@ -1837,12 +1866,12 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
@@ -1858,15 +1887,15 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
@@ -1881,12 +1910,12 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="C11" s="50"/>
       <c r="D11" s="48"/>
@@ -1902,12 +1931,12 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="48"/>
@@ -1923,12 +1952,12 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="48"/>
@@ -1944,12 +1973,12 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="48"/>
@@ -1965,12 +1994,12 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
@@ -1986,13 +2015,13 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
       <c r="B16" s="18" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
@@ -2007,7 +2036,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
@@ -2029,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10">
         <v>50</v>
@@ -2038,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F18" s="9">
         <v>20</v>
@@ -2080,7 +2109,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F19" s="9">
         <v>50</v>
@@ -2111,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C20" s="10">
         <v>50</v>
@@ -2120,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F20" s="9">
         <v>20</v>
@@ -2153,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
@@ -2162,7 +2191,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F21" s="9">
         <v>20</v>
@@ -2193,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10">
         <v>50</v>
@@ -2202,7 +2231,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F22" s="9">
         <v>20</v>
@@ -2233,7 +2262,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C23" s="10">
         <v>50</v>
@@ -2242,7 +2271,7 @@
         <v>50</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F23" s="9">
         <v>15</v>
@@ -2273,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C24" s="10">
         <v>50</v>
@@ -2282,7 +2311,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F24" s="9">
         <v>15</v>
@@ -2313,7 +2342,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="10">
         <v>50</v>
@@ -2322,7 +2351,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F25" s="9">
         <v>15</v>
@@ -2353,7 +2382,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C26" s="10">
         <v>50</v>
@@ -2362,7 +2391,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F26" s="9">
         <v>25</v>
@@ -2393,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C27" s="10">
         <v>50</v>
@@ -2402,7 +2431,7 @@
         <v>50</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F27" s="9">
         <v>25</v>
@@ -2442,7 +2471,7 @@
         <v>50</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F28" s="9">
         <v>15</v>
@@ -2471,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C29" s="10">
         <v>50</v>
@@ -2480,7 +2509,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F29" s="9">
         <v>25</v>
@@ -2509,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C30" s="10">
         <v>50</v>
@@ -2518,7 +2547,7 @@
         <v>50</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F30" s="9">
         <v>20</v>
@@ -2547,7 +2576,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C31" s="10">
         <v>50</v>
@@ -2556,7 +2585,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F31" s="9">
         <v>20</v>
@@ -2585,7 +2614,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C32" s="10">
         <v>50</v>
@@ -2594,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F32" s="9">
         <v>20</v>
@@ -2623,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C33" s="10">
         <v>50</v>
@@ -2632,7 +2661,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F33" s="9">
         <v>20</v>
@@ -2661,7 +2690,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C34" s="10">
         <v>50</v>
@@ -2670,7 +2699,7 @@
         <v>50</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F34" s="9">
         <v>20</v>
@@ -2699,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C35" s="10">
         <v>50</v>
@@ -2708,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F35" s="9">
         <v>10</v>
@@ -2737,7 +2766,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C36" s="10">
         <v>50</v>
@@ -2746,7 +2775,7 @@
         <v>50</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F36" s="9">
         <v>15</v>
@@ -2775,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C37" s="10">
         <v>50</v>
@@ -2784,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F37" s="9">
         <v>20</v>
@@ -2813,7 +2842,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C38" s="10">
         <v>50</v>
@@ -2822,7 +2851,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F38" s="9">
         <v>20</v>
@@ -2853,7 +2882,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C39" s="10">
         <v>50</v>
@@ -2862,7 +2891,7 @@
         <v>50</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F39" s="9">
         <v>20</v>
@@ -2889,7 +2918,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C40" s="10">
         <v>50</v>
@@ -2898,7 +2927,7 @@
         <v>50</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F40" s="9">
         <v>20</v>
@@ -2936,7 +2965,7 @@
         <v>50</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F41" s="9">
         <v>10</v>
@@ -2967,7 +2996,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C42" s="10">
         <v>50</v>
@@ -2976,7 +3005,7 @@
         <v>50</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F42" s="9">
         <v>20</v>
@@ -3005,7 +3034,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C43" s="10">
         <v>50</v>
@@ -3014,7 +3043,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F43" s="9">
         <v>20</v>
@@ -3043,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C44" s="10">
         <v>50</v>
@@ -3052,7 +3081,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" s="9">
         <v>20</v>
@@ -3090,7 +3119,7 @@
         <v>50</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F45" s="9">
         <v>10</v>
@@ -3109,7 +3138,7 @@
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M45" s="4">
         <f>SUM(C45:K45)</f>
@@ -3123,7 +3152,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C46" s="10">
         <v>50</v>
@@ -3132,7 +3161,7 @@
         <v>50</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F46" s="9">
         <v>15</v>
@@ -3161,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C47" s="10">
         <v>50</v>
@@ -3170,7 +3199,7 @@
         <v>50</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F47" s="9">
         <v>15</v>
@@ -3199,7 +3228,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C48" s="10">
         <v>50</v>
@@ -3208,7 +3237,7 @@
         <v>50</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F48" s="9">
         <v>10</v>
@@ -3239,7 +3268,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C49" s="10">
         <v>50</v>
@@ -3248,7 +3277,7 @@
         <v>50</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -3279,7 +3308,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C50" s="10">
         <v>50</v>
@@ -3288,7 +3317,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F50" s="9">
         <v>10</v>
@@ -3317,7 +3346,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
@@ -3326,7 +3355,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F51" s="9">
         <v>10</v>
@@ -3355,7 +3384,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C52" s="10">
         <v>50</v>
@@ -3364,7 +3393,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -3393,7 +3422,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C53" s="10">
         <v>50</v>
@@ -3402,7 +3431,7 @@
         <v>50</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F53" s="9">
         <v>0</v>
@@ -3429,7 +3458,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C54" s="10">
         <v>50</v>
@@ -3438,7 +3467,7 @@
         <v>50</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F54" s="9">
         <v>0</v>
@@ -3467,7 +3496,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C55" s="10">
         <v>50</v>
@@ -3476,7 +3505,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F55" s="9">
         <v>0</v>
@@ -3505,7 +3534,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C56" s="10">
         <v>50</v>
@@ -3514,7 +3543,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F56" s="9">
         <v>0</v>
@@ -3545,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C57" s="10">
         <v>10</v>
@@ -3554,7 +3583,7 @@
         <v>50</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F57" s="9">
         <v>10</v>
@@ -3585,22 +3614,22 @@
         <v>41</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C58" s="10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D58" s="10">
         <v>50</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F58" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G58" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H58" s="9">
         <v>10</v>
@@ -3609,11 +3638,15 @@
         <v>10</v>
       </c>
       <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="K58" s="9">
+        <v>30</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="M58" s="4">
         <f>SUM(C58:K58)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="8"/>
@@ -3623,7 +3656,7 @@
         <v>42</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C59" s="10">
         <v>50</v>
@@ -3632,7 +3665,7 @@
         <v>50</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F59" s="9">
         <v>0</v>
@@ -3661,22 +3694,22 @@
         <v>43</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C60" s="10">
         <v>50</v>
       </c>
       <c r="D60" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F60" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G60" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60" s="9">
         <v>10</v>
@@ -3689,7 +3722,7 @@
       <c r="L60" s="9"/>
       <c r="M60" s="4">
         <f>SUM(C60:K60)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="8"/>
@@ -3699,16 +3732,16 @@
         <v>44</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C61" s="10">
+        <v>50</v>
+      </c>
+      <c r="D61" s="10">
         <v>30</v>
       </c>
-      <c r="D61" s="10">
-        <v>50</v>
-      </c>
       <c r="E61" s="25" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F61" s="9">
         <v>10</v>
@@ -3737,22 +3770,22 @@
         <v>45</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C62" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D62" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F62" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G62" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H62" s="9">
         <v>10</v>
@@ -3765,7 +3798,7 @@
       <c r="L62" s="9"/>
       <c r="M62" s="4">
         <f>SUM(C62:K62)</f>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="8"/>
@@ -3775,16 +3808,16 @@
         <v>46</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C63" s="10">
+        <v>50</v>
+      </c>
+      <c r="D63" s="10">
         <v>30</v>
       </c>
-      <c r="D63" s="10">
-        <v>50</v>
-      </c>
       <c r="E63" s="25" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F63" s="9">
         <v>0</v>
@@ -3813,22 +3846,22 @@
         <v>47</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C64" s="10">
         <v>30</v>
       </c>
       <c r="D64" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
       </c>
       <c r="G64" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H64" s="9">
         <v>10</v>
@@ -3836,14 +3869,12 @@
       <c r="I64" s="23">
         <v>10</v>
       </c>
-      <c r="J64" s="9">
-        <v>10</v>
-      </c>
+      <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="4">
         <f>SUM(C64:K64)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="8"/>
@@ -3853,19 +3884,19 @@
         <v>48</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C65" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D65" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F65" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G65" s="9">
         <v>5</v>
@@ -3876,11 +3907,11 @@
       <c r="I65" s="23">
         <v>10</v>
       </c>
-      <c r="J65" s="9"/>
+      <c r="J65" s="9">
+        <v>10</v>
+      </c>
       <c r="K65" s="9"/>
-      <c r="L65" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="L65" s="9"/>
       <c r="M65" s="4">
         <f>SUM(C65:K65)</f>
         <v>95</v>
@@ -3893,7 +3924,7 @@
         <v>49</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C66" s="10">
         <v>10</v>
@@ -3902,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F66" s="9">
         <v>25</v>
@@ -3931,7 +3962,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C67" s="10">
         <v>30</v>
@@ -3940,7 +3971,7 @@
         <v>30</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -3967,7 +3998,7 @@
         <v>51</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C68" s="10">
         <v>10</v>
@@ -3976,7 +4007,7 @@
         <v>30</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F68" s="9">
         <v>10</v>
@@ -4007,7 +4038,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C69" s="10">
         <v>0</v>
@@ -4016,7 +4047,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -4045,7 +4076,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C70" s="10">
         <v>30</v>
@@ -4054,7 +4085,7 @@
         <v>30</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F70" s="9">
         <v>10</v>
@@ -4083,7 +4114,7 @@
         <v>54</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C71" s="10">
         <v>10</v>
@@ -4092,7 +4123,7 @@
         <v>50</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -4121,7 +4152,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C72" s="10">
         <v>30</v>
@@ -4130,7 +4161,7 @@
         <v>30</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -4168,7 +4199,7 @@
         <v>30</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F73" s="9">
         <v>10</v>
@@ -4197,7 +4228,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C74" s="10">
         <v>10</v>
@@ -4206,7 +4237,7 @@
         <v>30</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -4233,7 +4264,7 @@
         <v>58</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
@@ -4242,7 +4273,7 @@
         <v>50</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -4259,7 +4290,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M75" s="26">
         <f>SUM(C75:J75)</f>
@@ -4273,7 +4304,7 @@
         <v>59</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
@@ -4282,7 +4313,7 @@
         <v>30</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -4301,7 +4332,7 @@
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M76" s="4">
         <f>SUM(C76:K76)</f>
@@ -4315,7 +4346,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
@@ -4324,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F77" s="9">
         <v>20</v>
@@ -4353,7 +4384,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
@@ -4362,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F78" s="9">
         <v>10</v>
@@ -4379,7 +4410,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M78" s="4">
         <f>SUM(C78:K78)</f>
@@ -4391,7 +4422,7 @@
         <v>62</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
@@ -4400,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F79" s="9">
         <v>0</v>
@@ -4427,7 +4458,7 @@
         <v>63</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
@@ -4436,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -4463,7 +4494,7 @@
         <v>64</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
@@ -4472,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -4499,7 +4530,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C82" s="10">
         <v>0</v>
@@ -4508,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -4535,7 +4566,7 @@
         <v>66</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C83" s="10">
         <v>0</v>
@@ -4544,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -4571,7 +4602,7 @@
         <v>67</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C84" s="10">
         <v>0</v>
@@ -4580,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F84" s="9">
         <v>0</v>
@@ -4607,7 +4638,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
@@ -4616,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F85" s="9">
         <v>0</v>
